--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/11,25/03,11,25 ПОКОМ КИ Новороссийск/дв 03,11,25 нррсч пок ки от филиала.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/11,25/03,11,25 ПОКОМ КИ Новороссийск/дв 03,11,25 нррсч пок ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\03,11,25 ПОКОМ КИ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\11,25\03,11,25 ПОКОМ КИ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E565CB-E953-4594-93B9-3A5716480F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7764B57-2124-49E4-AAC9-036CF84C0C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AK$116</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -531,6 +531,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>/ опт</t>
     </r>
@@ -566,10 +568,10 @@
     <t>заказ</t>
   </si>
   <si>
-    <t>04,11,(1)</t>
+    <t>06,11,</t>
   </si>
   <si>
-    <t>04,11,(2)</t>
+    <t>07,11,</t>
   </si>
 </sst>
 </file>
@@ -590,17 +592,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -613,6 +621,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1060,7 +1070,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
